--- a/src/test/resources/Staff Data Upload With Jsr.xlsx
+++ b/src/test/resources/Staff Data Upload With Jsr.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0755C98A-6D54-0640-8C79-E7498E4CA272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF24A7FE-B2D3-3341-845D-531BB6AD3723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19540" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
     <sheet name="Terminology" sheetId="12" r:id="rId2"/>
-    <sheet name="Case Worker Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
     <sheet name="User Type" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="Services" sheetId="7" state="hidden" r:id="rId5"/>
     <sheet name="Base Locations" sheetId="6" state="hidden" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="1211">
   <si>
     <t>Region</t>
   </si>
@@ -3378,30 +3378,6 @@
   </si>
   <si>
     <t>Primary Base Location ID</t>
-  </si>
-  <si>
-    <t>Area of Work2 ID</t>
-  </si>
-  <si>
-    <t>Area of Work1 ID</t>
-  </si>
-  <si>
-    <t>Area of Work3 ID</t>
-  </si>
-  <si>
-    <t>Area of Work4 ID</t>
-  </si>
-  <si>
-    <t>Area of Work5 ID</t>
-  </si>
-  <si>
-    <t>Area of Work6 ID</t>
-  </si>
-  <si>
-    <t>Area of Work7 ID</t>
-  </si>
-  <si>
-    <t>Area of Work8 ID</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -3653,6 +3629,54 @@
   </si>
   <si>
     <t>test1@domain.com</t>
+  </si>
+  <si>
+    <t>Service1</t>
+  </si>
+  <si>
+    <t>Service1 ID</t>
+  </si>
+  <si>
+    <t>Service2</t>
+  </si>
+  <si>
+    <t>Service2 ID</t>
+  </si>
+  <si>
+    <t>Service3</t>
+  </si>
+  <si>
+    <t>Service3 ID</t>
+  </si>
+  <si>
+    <t>Service4</t>
+  </si>
+  <si>
+    <t>Service4 ID</t>
+  </si>
+  <si>
+    <t>Service5</t>
+  </si>
+  <si>
+    <t>Service5 ID</t>
+  </si>
+  <si>
+    <t>Service6</t>
+  </si>
+  <si>
+    <t>Service6 ID</t>
+  </si>
+  <si>
+    <t>Service7</t>
+  </si>
+  <si>
+    <t>Service7 ID</t>
+  </si>
+  <si>
+    <t>Service8</t>
+  </si>
+  <si>
+    <t>Service8 ID</t>
   </si>
 </sst>
 </file>
@@ -4957,7 +4981,7 @@
     <row r="1" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="31" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -5741,7 +5765,7 @@
     <row r="29" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -6585,7 +6609,7 @@
     <row r="59" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -7463,34 +7487,34 @@
   <sheetData>
     <row r="1" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="B2" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="B3" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="B4" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7498,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7506,15 +7530,15 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="B7" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7522,15 +7546,15 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="B9" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -7538,7 +7562,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7546,7 +7570,7 @@
         <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7554,7 +7578,7 @@
         <v>411</v>
       </c>
       <c r="B12" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7562,7 +7586,7 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7570,7 +7594,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7578,7 +7602,7 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7586,7 +7610,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7594,7 +7618,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7602,7 +7626,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7610,7 +7634,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7618,7 +7642,7 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7626,15 +7650,15 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="B22" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -7650,8 +7674,8 @@
   </sheetPr>
   <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7714,7 +7738,7 @@
         <v>56</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>54</v>
@@ -7726,69 +7750,69 @@
         <v>411</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>57</v>
+        <v>1195</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>1113</v>
+        <v>1196</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>58</v>
+        <v>1197</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>1112</v>
+        <v>1198</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>59</v>
+        <v>1199</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>1114</v>
+        <v>1200</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>60</v>
+        <v>1201</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>1115</v>
+        <v>1202</v>
       </c>
       <c r="U1" s="38" t="s">
-        <v>61</v>
+        <v>1203</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>1116</v>
+        <v>1204</v>
       </c>
       <c r="W1" s="38" t="s">
-        <v>62</v>
+        <v>1205</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>1117</v>
+        <v>1206</v>
       </c>
       <c r="Y1" s="38" t="s">
-        <v>63</v>
+        <v>1207</v>
       </c>
       <c r="Z1" s="28" t="s">
-        <v>1118</v>
+        <v>1208</v>
       </c>
       <c r="AA1" s="38" t="s">
-        <v>64</v>
+        <v>1209</v>
       </c>
       <c r="AB1" s="28" t="s">
-        <v>1119</v>
+        <v>1210</v>
       </c>
       <c r="AC1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="AD1" s="43" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>5</v>
@@ -7819,7 +7843,7 @@
       </c>
       <c r="L2" s="41"/>
       <c r="M2" s="41" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(M2,Services!$A$1:$B$45,2)),"",VLOOKUP(M2,Services!$A$1:$B$45,2))</f>
@@ -7861,21 +7885,21 @@
         <v/>
       </c>
       <c r="AC2" s="41" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="AD2" s="41" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>6</v>
@@ -7895,7 +7919,7 @@
         <v/>
       </c>
       <c r="J3" s="41" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="K3" s="41" t="s">
         <v>408</v>
@@ -7907,7 +7931,7 @@
         <v/>
       </c>
       <c r="O3" s="41" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="P3" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(O3,Services!$A$1:$B$45,2)),"",VLOOKUP(O3,Services!$A$1:$B$45,2))</f>
@@ -7948,13 +7972,13 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>10</v>
@@ -7976,7 +8000,7 @@
         <v/>
       </c>
       <c r="J4" s="41" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
@@ -7991,7 +8015,7 @@
         <v/>
       </c>
       <c r="Q4" s="41" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="R4" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(Q4,Services!$A$1:$B$45,2)),"",VLOOKUP(Q4,Services!$A$1:$B$45,2))</f>
@@ -8027,13 +8051,13 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>10</v>
@@ -8055,7 +8079,7 @@
         <v/>
       </c>
       <c r="J5" s="41" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>409</v>
@@ -8106,13 +8130,13 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>11</v>
@@ -8141,7 +8165,7 @@
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="41" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="N6" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(M6,Services!$A$1:$B$45,2)),"",VLOOKUP(M6,Services!$A$1:$B$45,2))</f>
@@ -8188,10 +8212,10 @@
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
       <c r="B7" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>10</v>
@@ -8220,7 +8244,7 @@
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="41" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="N7" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(M7,Services!$A$1:$B$45,2)),"",VLOOKUP(M7,Services!$A$1:$B$45,2))</f>
@@ -8266,11 +8290,11 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>9</v>
@@ -8304,7 +8328,7 @@
         <v/>
       </c>
       <c r="O8" s="41" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="P8" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(O8,Services!$A$1:$B$45,2)),"",VLOOKUP(O8,Services!$A$1:$B$45,2))</f>
@@ -8345,13 +8369,13 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>10</v>
@@ -8373,7 +8397,7 @@
         <v/>
       </c>
       <c r="J9" s="41" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="K9" s="41" t="s">
         <v>408</v>
@@ -8426,13 +8450,13 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="1" t="str">
@@ -8452,7 +8476,7 @@
         <v/>
       </c>
       <c r="J10" s="41" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="K10" s="41" t="s">
         <v>409</v>
@@ -8464,7 +8488,7 @@
         <v/>
       </c>
       <c r="O10" s="41" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="P10" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(O10,Services!$A$1:$B$45,2)),"",VLOOKUP(O10,Services!$A$1:$B$45,2))</f>
@@ -11104,7 +11128,7 @@
       <c r="AD50" s="41"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6oyb3rRRfKDqti5GQJdNRgETALv5BhypIRzP7ad5VgVRdJpgy9LUEIpAIaOgXLHmnqidCaz2KGK7nd1sygRpVQ==" saltValue="jaug0yiNYL4uUSxB9UIkgQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -11178,7 +11202,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -11219,7 +11243,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -11227,47 +11251,47 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="B3" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="B4" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="B5" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="B6" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="B7" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -11275,7 +11299,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -11283,7 +11307,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -11291,7 +11315,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -11299,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -11307,7 +11331,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -11315,7 +11339,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -11323,7 +11347,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -11331,7 +11355,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -11339,7 +11363,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -11347,7 +11371,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -11355,7 +11379,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -11363,7 +11387,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -11371,7 +11395,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -11379,7 +11403,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -11387,7 +11411,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -11395,7 +11419,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -11403,7 +11427,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -11411,7 +11435,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -11419,7 +11443,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -11427,7 +11451,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -11435,7 +11459,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -11443,7 +11467,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -11451,7 +11475,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -11459,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -11467,7 +11491,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -11475,7 +11499,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -11483,7 +11507,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -11491,7 +11515,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -11499,7 +11523,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -11507,7 +11531,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -11515,7 +11539,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -11523,7 +11547,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -11531,7 +11555,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -11539,7 +11563,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -11547,7 +11571,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -11555,7 +11579,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -11563,7 +11587,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -11571,7 +11595,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
@@ -18957,7 +18981,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
